--- a/biology/Zoologie/Antirrhea/Antirrhea.xlsx
+++ b/biology/Zoologie/Antirrhea/Antirrhea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antirrhea est un genre de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Morphinae.
 </t>
@@ -511,14 +523,12 @@
           <t>Historique et  dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre  Antirrhea  a été décrit par l’entomologiste allemand Jakob Hübner en 1822[1].
-L'espèce type est Antirrhea archaea Hübner, [1822].
-Synonymie
-Anchyphlebia Butler, 1868 [2]
-Sinarista Weymer, 1909 [3]
-Triteleuta Strand, 1912 [4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre  Antirrhea  a été décrit par l’entomologiste allemand Jakob Hübner en 1822.
+L'espèce type est Antirrhea archaea Hübner, .</t>
         </is>
       </c>
     </row>
@@ -543,14 +553,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et  dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anchyphlebia Butler, 1868 
+Sinarista Weymer, 1909 
+Triteleuta Strand, 1912 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antirrhea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antirrhea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des espèces
 Antirrhea adoptiva (Weymer, 1909); présent au Venezuela, en Colombie, en Équateur et au Pérou.
-Antirrhea archaea Hübner, [1822]; présent au Brésil
+Antirrhea archaea Hübner, ; présent au Brésil
 Antirrhea geryon C. &amp; R. Felder, 1862; présent en Colombie et en Équateur
 Antirrhea hela C. &amp; R. Felder, 1862; présent  au Pérou
 Antirrhea ornata (Butler, 1870); présent en Guyane.
